--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3760,7 +3760,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>TODO: Validation; UPDATE: DFIRM grid extents</t>
+          <t>TODO: MIP Exception Error</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4366,7 +4366,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>TODO: Missing Zone A; PBL, BFE, Validation</t>
+          <t>UPDATE: Missing Zone A Phase 1; TODO: PBL, BFE, Validation</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4586,7 +4586,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>2024/07/30</t>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4605,7 +4605,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3732,7 +3732,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DD Submit</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>TODO: Validation</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4720,7 +4720,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2024/08/01</t>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4574,7 +4574,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>KTG</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2024/09/09</t>
@@ -4623,7 +4627,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1, 2</t>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4594,7 +4594,11 @@
           <t>2024/09/10</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Phase 1</t>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4743,7 +4747,7 @@
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -4797,7 +4801,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2024/07/11</t>
@@ -4812,7 +4820,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -5186,7 +5194,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>2024/08/20</t>
@@ -5201,7 +5213,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -5255,7 +5267,11 @@
           <t>T</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RK</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>2024/08/05</t>
@@ -5270,7 +5286,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4571,7 +4571,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -4652,7 +4652,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -5191,7 +5191,7 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3723,11 +3723,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3893,11 +3893,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3978,11 +3978,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4063,11 +4063,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Phase 1</t>
+          <t>DD Mapping</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="Q15" s="18" t="inlineStr">
         <is>
-          <t>UPDATE: Missing Zone A Phase 1; TODO: PBL, BFE, Validation</t>
+          <t>TODO: Validation</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -4725,7 +4725,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4871,7 +4871,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4939,11 +4939,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5024,11 +5024,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -5264,7 +5264,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5409,11 +5409,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5494,11 +5494,11 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5409,7 +5409,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>DD Mapping</t>
+          <t>DD Internal</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -5114,7 +5114,7 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -5337,7 +5337,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3638,11 +3638,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3808,11 +3808,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -4067,7 +4067,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -4217,11 +4217,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CSLF;</t>
+          <t>CSLF; PAC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>DD Internal</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -4626,7 +4626,7 @@
       </c>
       <c r="Q15" s="18" t="inlineStr">
         <is>
-          <t>TODO: Validation</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -4939,7 +4939,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Passed MIP Validation</t>
+          <t>TODO: Missing 0.2% Vel grid</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3808,11 +3808,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4939,11 +4939,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5024,11 +5024,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>CSLF; PAC</t>
+          <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -5140,7 +5140,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>DD Internal</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>TODO: Validation</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5286,7 +5286,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>DD Mapping</t>
+          <t>DD Internal</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>DD Internal</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>TODO: Validation</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -5286,7 +5286,7 @@
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>DD Internal</t>
+          <t>Pass 1/2</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>TODO: PBL, BFE, Validation</t>
+          <t>Passed MIP Validation</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3575,55 +3575,59 @@
       </c>
       <c r="I2" s="20" t="inlineStr">
         <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="inlineStr">
+        <is>
+          <t>which_grid</t>
+        </is>
+      </c>
+      <c r="K2" s="20" t="inlineStr">
+        <is>
+          <t>Has AECOM Tie</t>
+        </is>
+      </c>
+      <c r="L2" s="20" t="inlineStr">
+        <is>
           <t>RAW_Grd_MM</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>DFIRM_Grd_MM</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
+      <c r="N2" s="20" t="inlineStr">
         <is>
           <t>Addl_Grd_MM</t>
         </is>
       </c>
-      <c r="L2" s="20" t="inlineStr">
+      <c r="O2" s="20" t="inlineStr">
         <is>
           <t>Prod Stage</t>
         </is>
       </c>
-      <c r="M2" s="20" t="inlineStr">
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>P01 Analyst</t>
         </is>
       </c>
-      <c r="N2" s="20" t="inlineStr">
-        <is>
-          <t>AECOM Tie-in</t>
-        </is>
-      </c>
-      <c r="O2" s="20" t="inlineStr">
+      <c r="Q2" s="20" t="inlineStr">
         <is>
           <t>TO_Area</t>
         </is>
       </c>
-      <c r="P2" s="20" t="inlineStr">
+      <c r="R2" s="20" t="inlineStr">
         <is>
           <t>Model Complete</t>
         </is>
       </c>
-      <c r="Q2" s="20" t="inlineStr">
+      <c r="S2" s="20" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="R2" s="20" t="inlineStr">
-        <is>
-          <t>which_grid</t>
-        </is>
-      </c>
-      <c r="S2" s="19" t="n"/>
       <c r="T2" s="19" t="n"/>
     </row>
     <row r="3">
@@ -3660,54 +3664,57 @@
           <t>2023/11/30</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>2024/02/23</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2023/10/12</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3745,54 +3752,57 @@
           <t>2023/11/30</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>2024/02/23</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2024/03/10</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2023/10/12</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3830,54 +3840,57 @@
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>2024/04/15</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2024/08/27</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2023/11/11</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3915,54 +3928,57 @@
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>2024/05/17</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2023/12/12</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4000,54 +4016,57 @@
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>2024/04/15</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2024/08/14</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2023/11/11</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4085,54 +4104,57 @@
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>2024/05/09</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2024/08/14</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>DD Submit</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2024/01/10</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>TODO: MIP Exception Error</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4162,48 +4184,51 @@
           <t>2024/06/03</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>2024/03/05</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>2024/06/17</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2023/11/11</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -4239,54 +4264,57 @@
           <t>2024/07/13</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>2024/06/14</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2024/07/16</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2024/07/18</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2024/05/31</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4316,44 +4344,47 @@
           <t>2024/02/26</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>2024/02/13</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2023/08/12</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -4381,46 +4412,49 @@
           <t>2023/07/30</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>2023/08/31</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2023/06/11</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>TODO: RAW, DRAFT, Addl</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4450,44 +4484,47 @@
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>2024/03/24</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2023/11/11</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -4515,44 +4552,47 @@
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
         <is>
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>R+E</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2024/07/25</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" t="inlineStr">
@@ -4584,54 +4624,57 @@
           <t>2024/09/09</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>2024/07/12</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2024/09/10</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024/09/12</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>Erika, Reina</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" s="18" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2024/07/08</t>
         </is>
       </c>
-      <c r="Q15" s="18" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4665,46 +4708,49 @@
           <t>2024/08/05</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>2024/08/07</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>E + M</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2024/07/16</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4738,46 +4784,49 @@
           <t>2024/08/01</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>2024/08/01</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2024/03/12</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4811,46 +4860,49 @@
           <t>2024/07/11</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>2024/06/12</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2024/07/08</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4884,46 +4936,49 @@
           <t>2024/07/30</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>2024/07/30</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2024/07/21</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4961,54 +5016,57 @@
           <t>2024/02/28</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>2024/04/04</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>2024/04/05</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024/04/05</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2024/01/10</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>TODO: Missing 0.2% Vel grid</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5046,54 +5104,57 @@
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>2024/03/15</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>2024/08/15</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>2024/08/19</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2023/11/11</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5123,54 +5184,57 @@
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
         <is>
           <t>2024/05/28</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2024/02/10</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5204,46 +5268,49 @@
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
         <is>
           <t>2024/08/06</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2024/08/01</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -5277,46 +5344,57 @@
           <t>2024/08/05</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
         <is>
           <t>2024/08/06</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2024/05/12</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -5346,54 +5424,57 @@
           <t>2024/03/30</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
         <is>
           <t>2024/05/24</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>2024/06/26</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024/05/24</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2024/02/10</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5431,54 +5512,57 @@
           <t>2024/01/30</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
         <is>
           <t>2024/03/15</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>2024/06/26</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2023/12/12</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5516,54 +5600,57 @@
           <t>2024/03/30</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
         <is>
           <t>2024/04/20</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>2024/04/20</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024/05/01</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2024/02/10</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5593,52 +5680,55 @@
           <t>2024/02/28</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
         <is>
           <t>2024/03/26</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>2024/03/26</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>2026/03/28</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2024/01/10</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
+      <c r="S28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3545,89 +3545,73 @@
       </c>
       <c r="C2" s="20" t="inlineStr">
         <is>
+          <t>P02a_Assign</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>P01_MM</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D2" s="20" t="inlineStr">
-        <is>
-          <t>FRP_Perc_Complete</t>
-        </is>
-      </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t>FRP</t>
-        </is>
-      </c>
       <c r="F2" s="20" t="inlineStr">
         <is>
-          <t>BFE_TODO</t>
+          <t>RAW_Grd_MM</t>
         </is>
       </c>
       <c r="G2" s="20" t="inlineStr">
         <is>
-          <t>P02a_Assign</t>
+          <t>DFIRM_Grd_MM</t>
         </is>
       </c>
       <c r="H2" s="20" t="inlineStr">
         <is>
-          <t>P01_MM</t>
+          <t>Addl_Grd_MM</t>
         </is>
       </c>
       <c r="I2" s="20" t="inlineStr">
         <is>
-          <t>Id</t>
+          <t>Prod Stage</t>
         </is>
       </c>
       <c r="J2" s="20" t="inlineStr">
         <is>
+          <t>P01 Analyst</t>
+        </is>
+      </c>
+      <c r="K2" s="20" t="inlineStr">
+        <is>
+          <t>AECOM Tie-in</t>
+        </is>
+      </c>
+      <c r="L2" s="20" t="inlineStr">
+        <is>
+          <t>TO_Area</t>
+        </is>
+      </c>
+      <c r="M2" s="20" t="inlineStr">
+        <is>
+          <t>Model Complete</t>
+        </is>
+      </c>
+      <c r="N2" s="20" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="O2" s="20" t="inlineStr">
+        <is>
           <t>which_grid</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
-        <is>
-          <t>Has AECOM Tie</t>
-        </is>
-      </c>
-      <c r="L2" s="20" t="inlineStr">
-        <is>
-          <t>RAW_Grd_MM</t>
-        </is>
-      </c>
-      <c r="M2" s="20" t="inlineStr">
-        <is>
-          <t>DFIRM_Grd_MM</t>
-        </is>
-      </c>
-      <c r="N2" s="20" t="inlineStr">
-        <is>
-          <t>Addl_Grd_MM</t>
-        </is>
-      </c>
-      <c r="O2" s="20" t="inlineStr">
-        <is>
-          <t>Prod Stage</t>
-        </is>
-      </c>
-      <c r="P2" s="20" t="inlineStr">
-        <is>
-          <t>P01 Analyst</t>
-        </is>
-      </c>
-      <c r="Q2" s="20" t="inlineStr">
-        <is>
-          <t>TO_Area</t>
-        </is>
-      </c>
-      <c r="R2" s="20" t="inlineStr">
-        <is>
-          <t>Model Complete</t>
-        </is>
-      </c>
-      <c r="S2" s="20" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
+      <c r="P2" s="20" t="n"/>
+      <c r="Q2" s="20" t="n"/>
+      <c r="R2" s="20" t="n"/>
+      <c r="S2" s="20" t="n"/>
       <c r="T2" s="19" t="n"/>
     </row>
     <row r="3">
@@ -3638,83 +3622,63 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Coon-Yellow</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3726,83 +3690,63 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Upper Iowa</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>MB</t>
+          <t>2024/03/10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024/03/10</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3814,25 +3758,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>2024/08/27</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3840,57 +3786,35 @@
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024/08/27</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3902,83 +3826,63 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Maquoketa</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>2024/05/21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3990,83 +3894,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Upper Wapsipinicon</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4078,25 +3962,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Lower Wapsipinicon</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4104,57 +3990,35 @@
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>DD Submit</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>TODO: MIP Exception Error</t>
         </is>
       </c>
     </row>
@@ -4164,71 +4028,55 @@
           <t>07080105</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6/3/2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>South Skunk</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2024/06/03</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>FY21_2A</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>11/11/2023</t>
         </is>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -4238,83 +4086,63 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7/13/2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Lower Cedar</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CSLF; PAC</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024/07/13</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5/31/2024</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2024/05/31</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4324,67 +4152,51 @@
           <t>07100006</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2/26/2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>North Raccoon</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>2024/02/13</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2024/02/26</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
           <t>YES</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024/02/13</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2023/08/12</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>1, 2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -4392,69 +4204,53 @@
           <t>07100007</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7/30/2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>South Raccoon</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>2023/08/31</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2023/07/30</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2023/08/31</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2023/06/11</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>TODO: RAW, DRAFT, Addl</t>
         </is>
       </c>
     </row>
@@ -4464,67 +4260,51 @@
           <t>07100008</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Lake Red Rock</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>2024/03/24</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024/03/24</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr"/>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>1, 2</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -4532,67 +4312,51 @@
           <t>07100009</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8/4/2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Lower Des Moines</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>2024/08/04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7/25/2024</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>R+E</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2024/07/25</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
+          <t>1, 2</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" t="inlineStr">
@@ -4602,81 +4366,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9/9/2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Floyd</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>KTG</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024/07/12</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2024/09/10</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>2024/09/12</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Erika, Reina</t>
-        </is>
-      </c>
-      <c r="Q15" s="18" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
-        </is>
-      </c>
+      <c r="Q15" s="18" t="n"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -4686,71 +4435,55 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Little Sioux</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>RK</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>E + M</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7/16/2024</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>E + M</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4762,71 +4495,63 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Monona-Harrison Ditch</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3/12/2024</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MIP Validation Passed</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2024/03/12</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4838,71 +4563,55 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7/11/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Maple</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>RK</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2024/07/11</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+          <t>2024/06/12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DD Internal</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2024/06/12</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4914,71 +4623,55 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7/30/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Boyer</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
           <t>2024/07/30</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>7/21/2024</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2024/07/21</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4990,83 +4683,63 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Apple-Plum</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/04/04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>2024/04/05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2024/04/04</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>TODO: Missing 0.2% Vel grid</t>
         </is>
       </c>
     </row>
@@ -5078,83 +4751,63 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Upper Cedar</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>2024/08/15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2023/12/30</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2024/08/15</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2024/08/19</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5164,77 +4817,61 @@
           <t>10170204</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5/29/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Rock</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5246,71 +4883,55 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8/20/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Blackbird-Soldier</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>RK</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -5322,79 +4943,63 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Big Papillion-Mosquito</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>RK</t>
+          <t>2024/10/07</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>5/12/2024</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2024/05/12</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5404,77 +5009,61 @@
           <t>10170203</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Lower Big Sioux</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5486,83 +5075,63 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1/30/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Grant-Little Maquoketa</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5574,83 +5143,63 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Copperas-Duck</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>CSLF; PAC; Velocity</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>2024/04/20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024/03/30</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2024/05/01</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5660,75 +5209,59 @@
           <t>07110001</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Bear-Wyaconda</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
+          <t>2026/03/28</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2026/03/28</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3545,72 +3545,84 @@
       </c>
       <c r="C2" s="20" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>FRP_Perc_Complete</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t>FRP</t>
+        </is>
+      </c>
+      <c r="F2" s="20" t="inlineStr">
+        <is>
+          <t>BFE_TODO</t>
+        </is>
+      </c>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
           <t>P02a_Assign</t>
         </is>
       </c>
-      <c r="D2" s="20" t="inlineStr">
+      <c r="H2" s="20" t="inlineStr">
         <is>
           <t>P01_MM</t>
         </is>
       </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="F2" s="20" t="inlineStr">
+      <c r="I2" s="20" t="inlineStr">
+        <is>
+          <t>which_grid</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="inlineStr">
+        <is>
+          <t>Has AECOM Tie</t>
+        </is>
+      </c>
+      <c r="K2" s="20" t="inlineStr">
         <is>
           <t>RAW_Grd_MM</t>
         </is>
       </c>
-      <c r="G2" s="20" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>DFIRM_Grd_MM</t>
         </is>
       </c>
-      <c r="H2" s="20" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>Addl_Grd_MM</t>
         </is>
       </c>
-      <c r="I2" s="20" t="inlineStr">
+      <c r="N2" s="20" t="inlineStr">
         <is>
           <t>Prod Stage</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="O2" s="20" t="inlineStr">
         <is>
           <t>P01 Analyst</t>
         </is>
       </c>
-      <c r="K2" s="20" t="inlineStr">
-        <is>
-          <t>AECOM Tie-in</t>
-        </is>
-      </c>
-      <c r="L2" s="20" t="inlineStr">
+      <c r="P2" s="20" t="inlineStr">
         <is>
           <t>TO_Area</t>
         </is>
       </c>
-      <c r="M2" s="20" t="inlineStr">
+      <c r="Q2" s="20" t="inlineStr">
         <is>
           <t>Model Complete</t>
         </is>
       </c>
-      <c r="N2" s="20" t="inlineStr">
+      <c r="R2" s="20" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-      <c r="O2" s="20" t="inlineStr">
-        <is>
-          <t>which_grid</t>
-        </is>
-      </c>
-      <c r="P2" s="20" t="n"/>
-      <c r="Q2" s="20" t="n"/>
-      <c r="R2" s="20" t="n"/>
       <c r="S2" s="20" t="n"/>
       <c r="T2" s="19" t="n"/>
     </row>
@@ -3622,63 +3634,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Coon-Yellow</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11/30/2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Coon-Yellow</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2024/02/23</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3690,63 +3719,80 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Upper Iowa</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11/30/2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Upper Iowa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023/11/30</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>2024/02/23</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>2024/03/10</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>10/12/2023</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3758,63 +3804,80 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>2024/04/15</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2024/08/27</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3826,63 +3889,80 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Maquoketa</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Maquoketa</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>2024/05/17</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2024/05/21</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Multi</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3894,63 +3974,80 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Upper Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Upper Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>2024/04/15</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>2024/08/14</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -3962,63 +4059,80 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Lower Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5/22/2024</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lower Wapsipinicon</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>2024/05/09</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>2024/08/14</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4028,55 +4142,68 @@
           <t>07080105</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6/3/2024</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>South Skunk</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024/06/03</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>2024/03/05</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>2024/06/17</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -4086,63 +4213,80 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Lower Cedar</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CSLF; PAC</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7/13/2024</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lower Cedar</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024/07/13</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>2024/06/14</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>2024/07/16</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>2024/07/18</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>5/31/2024</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4152,51 +4296,64 @@
           <t>07100006</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2/26/2024</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>North Raccoon</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024/02/26</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>2024/02/13</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>8/12/2023</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2023/08/12</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -4204,53 +4361,66 @@
           <t>07100007</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7/30/2023</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>South Raccoon</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2023/07/30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>2023/08/31</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>6/11/2023</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2023/06/11</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>TODO: RAW, DRAFT, Addl</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4260,51 +4430,64 @@
           <t>07100008</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Lake Red Rock</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>2024/03/24</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -4312,51 +4495,64 @@
           <t>07100009</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8/4/2024</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Lower Des Moines</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024/08/04</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>R+E</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>7/25/2024</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2024/07/25</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" t="inlineStr">
@@ -4366,66 +4562,78 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Floyd</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9/9/2024</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Floyd</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024/09/09</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>2024/07/12</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>2024/09/10</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>2024/09/12</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Erika, Reina</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="Q15" s="18" t="inlineStr">
+        <is>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
-      <c r="Q15" s="18" t="n"/>
     </row>
     <row r="16">
       <c r="B16" t="inlineStr">
@@ -4435,55 +4643,68 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Little Sioux</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8/5/2024</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Little Sioux</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024/08/05</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>2024/08/07</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
         <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>E + M</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>7/16/2024</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4495,63 +4716,76 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Monona-Harrison Ditch</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Monona-Harrison Ditch</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>2024/08/01</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>2024/10/07</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>2024/10/10</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>3/12/2024</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>MIP Validation Passed</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4563,55 +4797,68 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7/11/2024</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Maple</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024/07/11</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>2024/06/12</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>DD Internal</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7/8/2024</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4623,55 +4870,68 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Boyer</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7/30/2024</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Boyer</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>2024/07/30</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
           <t>DD Mapping</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>7/21/2024</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2024/07/21</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>TODO: PBL, BFE, Validation</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4683,63 +4943,80 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Apple-Plum</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>100</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2/28/2024</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Apple-Plum</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>2024/04/04</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>2024/04/05</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>2024/04/05</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
         <is>
           <t>TODO: Missing 0.2% Vel grid</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4751,63 +5028,80 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Upper Cedar</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12/30/2023</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Upper Cedar</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2023/12/30</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>2024/03/15</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>2024/08/15</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>2024/08/19</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>11/11/2023</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4817,61 +5111,74 @@
           <t>10170204</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5/29/2024</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Rock</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>2024/05/28</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -4883,55 +5190,68 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Blackbird-Soldier</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>8/20/2024</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Blackbird-Soldier</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>2024/08/06</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>8/1/2024</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1, 2</t>
         </is>
       </c>
     </row>
@@ -4943,63 +5263,76 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Big Papillion-Mosquito</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8/5/2024</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Big Papillion-Mosquito</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024/08/05</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>2024/08/06</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>2024/10/07</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>2024/10/08</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>5/12/2024</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5009,61 +5342,74 @@
           <t>10170203</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3/30/2024</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Lower Big Sioux</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024/03/30</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>2024/05/24</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>2024/06/26</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>2024/05/24</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Pass 1/2</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>Matt</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>FY22_3B</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5075,63 +5421,80 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Grant-Little Maquoketa</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>100</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1/30/2024</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Grant-Little Maquoketa</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2024/01/30</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>2024/03/15</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>2024/06/26</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>Erika</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>12/12/2023</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5143,63 +5506,80 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Copperas-Duck</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>100</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>3/30/2024</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Copperas-Duck</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024/03/30</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>2024/04/20</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>2024/04/20</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>2024/05/01</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Pass 2/2</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>FY20_1A</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2/10/2024</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Passed MIP Validation</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>All on MM</t>
         </is>
       </c>
     </row>
@@ -5209,59 +5589,72 @@
           <t>07110001</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2/28/2024</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Bear-Wyaconda</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2024/02/28</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>2024/03/26</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>2024/03/26</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>2026/03/28</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Phase 1</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>Reina</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>FY21_2A</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>1/10/2024</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>All on MM</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/tables/Iowa_BLE_Tracking.xlsx
+++ b/data/tables/Iowa_BLE_Tracking.xlsx
@@ -3510,7 +3510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:AE28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -3545,86 +3545,149 @@
       </c>
       <c r="C2" s="20" t="inlineStr">
         <is>
+          <t>P02a_Assign</t>
+        </is>
+      </c>
+      <c r="D2" s="20" t="inlineStr">
+        <is>
+          <t>P01_MM</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="D2" s="20" t="inlineStr">
-        <is>
-          <t>FRP_Perc_Complete</t>
-        </is>
-      </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t>FRP</t>
-        </is>
-      </c>
       <c r="F2" s="20" t="inlineStr">
         <is>
-          <t>BFE_TODO</t>
+          <t>RAW_Grd_MM</t>
         </is>
       </c>
       <c r="G2" s="20" t="inlineStr">
         <is>
-          <t>P02a_Assign</t>
+          <t>DFIRM_Grd_MM</t>
         </is>
       </c>
       <c r="H2" s="20" t="inlineStr">
         <is>
-          <t>P01_MM</t>
+          <t>Addl_Grd_MM</t>
         </is>
       </c>
       <c r="I2" s="20" t="inlineStr">
         <is>
+          <t>Prod Stage</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="inlineStr">
+        <is>
+          <t>P01 Analyst</t>
+        </is>
+      </c>
+      <c r="K2" s="20" t="inlineStr">
+        <is>
+          <t>AECOM Tie-in</t>
+        </is>
+      </c>
+      <c r="L2" s="20" t="inlineStr">
+        <is>
+          <t>TO_Area</t>
+        </is>
+      </c>
+      <c r="M2" s="20" t="inlineStr">
+        <is>
+          <t>Model Complete</t>
+        </is>
+      </c>
+      <c r="N2" s="20" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="O2" s="20" t="inlineStr">
+        <is>
           <t>which_grid</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
-        <is>
-          <t>Has AECOM Tie</t>
-        </is>
-      </c>
-      <c r="K2" s="20" t="inlineStr">
-        <is>
-          <t>RAW_Grd_MM</t>
-        </is>
-      </c>
-      <c r="L2" s="20" t="inlineStr">
-        <is>
-          <t>DFIRM_Grd_MM</t>
-        </is>
-      </c>
-      <c r="M2" s="20" t="inlineStr">
-        <is>
-          <t>Addl_Grd_MM</t>
-        </is>
-      </c>
-      <c r="N2" s="20" t="inlineStr">
-        <is>
-          <t>Prod Stage</t>
-        </is>
-      </c>
-      <c r="O2" s="20" t="inlineStr">
-        <is>
-          <t>P01 Analyst</t>
-        </is>
-      </c>
       <c r="P2" s="20" t="inlineStr">
         <is>
-          <t>TO_Area</t>
+          <t>Addl_Gri_1</t>
         </is>
       </c>
       <c r="Q2" s="20" t="inlineStr">
         <is>
-          <t>Model Complete</t>
+          <t>BFE_TODO_F</t>
         </is>
       </c>
       <c r="R2" s="20" t="inlineStr">
         <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="S2" s="20" t="n"/>
-      <c r="T2" s="19" t="n"/>
+          <t>Contract_1</t>
+        </is>
+      </c>
+      <c r="S2" s="20" t="inlineStr">
+        <is>
+          <t>DFIRM_Gr_1</t>
+        </is>
+      </c>
+      <c r="T2" s="20" t="inlineStr">
+        <is>
+          <t>Final_Mo_1</t>
+        </is>
+      </c>
+      <c r="U2" s="20" t="inlineStr">
+        <is>
+          <t>FRP_First</t>
+        </is>
+      </c>
+      <c r="V2" s="20" t="inlineStr">
+        <is>
+          <t>Grids_No_1</t>
+        </is>
+      </c>
+      <c r="W2" s="20" t="inlineStr">
+        <is>
+          <t>huc8_First</t>
+        </is>
+      </c>
+      <c r="X2" s="20" t="inlineStr">
+        <is>
+          <t>Mapping__1</t>
+        </is>
+      </c>
+      <c r="Y2" s="20" t="inlineStr">
+        <is>
+          <t>name_First</t>
+        </is>
+      </c>
+      <c r="Z2" s="20" t="inlineStr">
+        <is>
+          <t>PBL_Assi_1</t>
+        </is>
+      </c>
+      <c r="AA2" s="20" t="inlineStr">
+        <is>
+          <t>Phase_1__1</t>
+        </is>
+      </c>
+      <c r="AB2" s="20" t="inlineStr">
+        <is>
+          <t>Producti_1</t>
+        </is>
+      </c>
+      <c r="AC2" s="20" t="inlineStr">
+        <is>
+          <t>RAW_Grid_F</t>
+        </is>
+      </c>
+      <c r="AD2" s="20" t="inlineStr">
+        <is>
+          <t>TO_Area_Fi</t>
+        </is>
+      </c>
+      <c r="AE2" s="20" t="inlineStr">
+        <is>
+          <t>which_gr_1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
@@ -3634,80 +3697,139 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Coon-Yellow</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>07060001</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Coon-Yellow</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>2023/11/30</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3719,80 +3841,139 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>MB</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11/30/2023</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Upper Iowa</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>10/12/2023</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2024/08/20</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2024/03/10</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2023/10/12</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>07060002</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>Upper Iowa</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>MB</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>2023/11/30</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2024/02/23</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024/02/23</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024/03/10</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024/08/20</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2023/10/12</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3804,80 +3985,139 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Turkey</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2024/08/27</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>07060004</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024/08/27</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3889,80 +4129,139 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Maquoketa</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024/05/17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2024/05/21</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>07060006</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Multi</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>Maquoketa</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2024/05/17</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024/05/17</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2024/05/21</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Multi</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -3974,80 +4273,139 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Upper Wapsipinicon</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>07080102</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>Upper Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="AA7" t="inlineStr">
         <is>
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2024/04/15</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024/04/15</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4059,80 +4417,139 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5/22/2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Lower Wapsipinicon</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2024/08/14</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>07080103</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>Lower Wapsipinicon</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="AA8" t="inlineStr">
         <is>
           <t>2024/05/22</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2024/05/09</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>2024/08/14</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4142,68 +4559,115 @@
           <t>07080105</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6/3/2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>South Skunk</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2024/06/17</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>07080105</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>South Skunk</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
         <is>
           <t>2024/06/03</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2024/03/05</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2024/03/05</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2024/06/17</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
@@ -4213,80 +4677,139 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>QB</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7/13/2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Lower Cedar</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>CSLF; PAC</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>5/31/2024</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2024/07/18</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2024/05/31</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>CSLF; PAC; Velocity</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>07080206</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>Lower Cedar</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>QB</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="AA10" t="inlineStr">
         <is>
           <t>2024/07/13</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024/06/14</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2024/07/18</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2024/05/31</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4296,64 +4819,107 @@
           <t>07100006</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2/26/2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>North Raccoon</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8/12/2023</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2023/08/12</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>07100006</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>North Raccoon</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr">
         <is>
           <t>2024/02/26</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2024/02/13</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2024/02/13</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2023/08/12</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="B12" t="inlineStr">
@@ -4361,66 +4927,113 @@
           <t>07100007</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7/30/2023</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>South Raccoon</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
+          <t>2023/08/31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>6/11/2023</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>2023/06/11</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>TODO: RAW, DRAFT, Addl</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>07100007</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>South Raccoon</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>2023/07/30</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2023/08/31</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2023/08/31</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2023/06/11</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TODO: RAW, DRAFT, Addl</t>
         </is>
       </c>
     </row>
@@ -4430,64 +5043,107 @@
           <t>07100008</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Lake Red Rock</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
+          <t>2024/03/24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>07100008</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>Lake Red Rock</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2024/03/24</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024/03/24</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
@@ -4495,64 +5151,107 @@
           <t>07100009</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8/4/2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Lower Des Moines</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
+          <t>2024/08/04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7/25/2024</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2024/07/25</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>07100009</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>R+E</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>Lower Des Moines</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>2024/08/04</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2024/08/04</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>1, 2</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2024/08/04</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>R+E</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2024/07/25</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="B15" t="inlineStr">
@@ -4562,76 +5261,135 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>KTG</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9/9/2024</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Floyd</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2024/09/12</t>
+        </is>
+      </c>
+      <c r="Q15" s="18" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2024/09/10</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>10230002</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Erika, Reina</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>Floyd</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>KTG</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="AA15" t="inlineStr">
         <is>
           <t>2024/09/09</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2024/07/12</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>2024/07/12</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2024/09/10</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2024/09/12</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Erika, Reina</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q15" s="18" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -4643,68 +5401,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Little Sioux</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>E + M</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>7/16/2024</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>10230003</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>E + M</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>Little Sioux</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>2024/08/05</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>2024/08/07</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024/08/07</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>E + M</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2024/07/16</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4716,76 +5525,135 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Monona-Harrison Ditch</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>3/12/2024</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MIP Validation Passed</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>2024/03/12</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>MIP Validation Passed</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>10230004</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>Monona-Harrison Ditch</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="AA17" t="inlineStr">
         <is>
           <t>2024/08/01</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2024/10/10</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2024/03/12</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>MIP Validation Passed</t>
         </is>
       </c>
     </row>
@@ -4797,68 +5665,119 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7/11/2024</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Maple</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
+          <t>2024/06/12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MIP Exception</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>2024/07/08</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>MIP Exception</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>10230005</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>Maple</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="AA18" t="inlineStr">
         <is>
           <t>2024/07/11</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>2024/06/12</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE18" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024/06/12</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>DD Internal</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2024/07/08</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4870,68 +5789,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7/30/2024</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Boyer</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>7/21/2024</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>2024/07/21</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>TODO: PBL, BFE, Validation</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>10230007</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Boyer</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="AA19" t="inlineStr">
         <is>
           <t>2024/07/30</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>DD Mapping</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2024/07/30</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE19" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024/07/30</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>DD Mapping</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2024/07/21</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>TODO: PBL, BFE, Validation</t>
         </is>
       </c>
     </row>
@@ -4943,80 +5913,139 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Apple-Plum</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2024/04/05</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>TODO: Missing 0.2% Vel grid</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>07060005</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>Apple-Plum</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="AA20" t="inlineStr">
         <is>
           <t>2024/02/28</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>2024/04/04</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024/04/04</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2024/04/05</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>TODO: Missing 0.2% Vel grid</t>
         </is>
       </c>
     </row>
@@ -5028,80 +6057,139 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12/30/2023</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Upper Cedar</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>11/11/2023</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2024/08/19</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2024/08/15</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>2023/11/11</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>07080201</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>Upper Cedar</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="AA21" t="inlineStr">
         <is>
           <t>2023/12/30</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2024/08/15</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2024/08/19</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2023/11/11</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5111,74 +6199,129 @@
           <t>10170204</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5/29/2024</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Rock</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
         <is>
           <t>2024/05/29</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>10170204</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>Rock</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2024/05/29</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>2024/05/28</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE22" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2024/05/28</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2024/05/29</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5190,68 +6333,135 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8/20/2024</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Blackbird-Soldier</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>8/1/2024</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2024/10/10</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>2024/08/01</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>10230001</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>Blackbird-Soldier</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>2024/08/20</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
         <is>
           <t>1, 2</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2024/08/01</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5263,76 +6473,135 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>RK</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8/5/2024</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Big Papillion-Mosquito</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>5/12/2024</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>2024/10/08</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2024/10/07</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>2024/05/12</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>10230006</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>Big Papillion-Mosquito</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
         <is>
           <t>RK</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="AA24" t="inlineStr">
         <is>
           <t>2024/08/05</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>2024/08/06</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2024/08/06</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2024/10/07</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2024/10/08</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2024/05/12</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5342,74 +6611,129 @@
           <t>10170203</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Lower Big Sioux</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>10170203</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Matt</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>Lower Big Sioux</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr">
         <is>
           <t>2024/03/30</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Pass 1/2</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>2024/05/24</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>FY22_3B</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2024/05/24</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Pass 1/2</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Matt</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>FY22_3B</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5421,80 +6745,139 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1/30/2024</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Grant-Little Maquoketa</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>12/12/2023</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2023/12/12</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>07060003</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Erika</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>Grant-Little Maquoketa</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="AA26" t="inlineStr">
         <is>
           <t>2024/01/30</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2024/03/15</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024/03/15</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024/06/26</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2024/05/22</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Erika</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2023/12/12</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5506,80 +6889,139 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3/30/2024</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Copperas-Duck</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>2/10/2024</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2024/05/01</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>2024/02/10</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
         <is>
           <t>CSLF; PAC; Velocity</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Passed MIP Validation</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>07080101</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>Copperas-Duck</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
         <is>
           <t>MT</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="AA27" t="inlineStr">
         <is>
           <t>2024/03/30</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Pass 2/2</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2024/04/20</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>FY20_1A</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
         <is>
           <t>All on MM</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2024/04/20</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2024/05/01</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Pass 2/2</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>FY20_1A</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2024/02/10</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>Passed MIP Validation</t>
         </is>
       </c>
     </row>
@@ -5589,72 +7031,123 @@
           <t>07110001</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2/28/2024</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Bear-Wyaconda</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026/03/28</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1/10/2024</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>All on MM</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>2026/03/28</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>T</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr">
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>2024/01/10</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>07110001</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Reina</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>Bear-Wyaconda</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr">
         <is>
           <t>2024/02/28</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Phase 1</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>2024/03/26</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>FY21_2A</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
         <is>
           <t>All on MM</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2024/03/26</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2026/03/28</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Phase 1</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Reina</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>FY21_2A</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>2024/01/10</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
